--- a/Data/zillow_data_dictionary.xlsx
+++ b/Data/zillow_data_dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhe/zdabh/kaggle/published_to_kaggle/kaggle_publish_history/2017-05-04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasan\Documents\Projects\Zillows-Home-Value-Prediction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4019BD64-69A5-478D-9836-22ADC422867D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16900" yWindow="-20780" windowWidth="27600" windowHeight="15880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="5" r:id="rId1"/>
@@ -18,8 +19,8 @@
     <sheet name="StoryTypeID" sheetId="1" r:id="rId4"/>
     <sheet name="AirConditioningTypeID" sheetId="2" r:id="rId5"/>
     <sheet name="ArchitecturalStyleTypeID" sheetId="3" r:id="rId6"/>
-    <sheet name="TypeConstructionTypeID" sheetId="4" r:id="rId7"/>
-    <sheet name="BuildingClassTypeID" sheetId="9" r:id="rId8"/>
+    <sheet name="BuildingClassTypeID" sheetId="9" r:id="rId7"/>
+    <sheet name="TypeConstructionTypeID" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PropertyLandUseTypeID!$A$1:$B$26</definedName>
@@ -29,11 +30,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -849,7 +850,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1160,20 +1161,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>217</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>218</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>220</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>221</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>225</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>228</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>229</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>230</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>232</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>233</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>235</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>237</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>238</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>239</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>240</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>241</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>242</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>244</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>245</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>246</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>247</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>249</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>250</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>251</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>252</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>253</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>254</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>255</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>257</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>258</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>259</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>260</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>261</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>262</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>263</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>264</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>265</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>266</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>267</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>210</v>
       </c>
@@ -1651,16 +1652,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1874,20 +1875,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>31</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>46</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>47</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>246</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>247</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>248</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>260</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>261</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>262</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>263</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>264</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>265</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>266</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>267</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>268</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>269</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>270</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>271</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>273</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>274</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>275</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>276</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>279</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>290</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>291</v>
       </c>
@@ -2101,16 +2102,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2404,16 +2405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2531,16 +2532,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2770,16 +2771,81 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="125.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2787,7 +2853,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2795,7 +2861,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2803,7 +2869,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2811,7 +2877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2819,7 +2885,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2827,7 +2893,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2835,7 +2901,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2843,7 +2909,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2851,7 +2917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2859,7 +2925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2867,7 +2933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2875,7 +2941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2883,7 +2949,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2891,7 +2957,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2899,7 +2965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2907,7 +2973,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2915,7 +2981,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2923,77 +2989,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="125.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
